--- a/Crawling/crawling_data/day_genie/day_genie_20220108.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220108.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="231">
   <si>
     <t>날짜</t>
   </si>
@@ -211,8 +211,7 @@
     <t>다시 사랑한다면 (김필 Ver.)</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>사이렌 Remix (Feat. UNEDUCATED KID &amp; Paul Blanco)</t>
@@ -311,8 +310,7 @@
     <t>묘해, 너와</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>호우주의 (Feat. 개코 &amp; 넉살 (Nucksal)) (Prod. by 코드 쿤스트)</t>
@@ -703,9 +701,6 @@
   </si>
   <si>
     <t>연애의 발견 OST Part 4 (KBS 월화드라마)</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>가을 타나 봐 (REVIBE Vol.4)</t>
@@ -2671,7 +2666,7 @@
         <v>169</v>
       </c>
       <c r="E94" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2739,7 +2734,7 @@
         <v>114</v>
       </c>
       <c r="E98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2756,7 +2751,7 @@
         <v>173</v>
       </c>
       <c r="E99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:5">
